--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Selenium-POMFramework-workspace\FrameworkUtilities\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B07D278-3F38-40A1-80CE-D297D317AD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A5F372-1DC0-4720-A448-2C21D404CF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,54 +26,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>scenario</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>vijay</t>
-  </si>
-  <si>
-    <t>scenario1</t>
-  </si>
-  <si>
-    <t>scenario2</t>
-  </si>
-  <si>
-    <t>scenario3</t>
-  </si>
-  <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t>edge</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>tamil</t>
-  </si>
-  <si>
-    <t>french</t>
-  </si>
-  <si>
-    <t>ajay</t>
-  </si>
-  <si>
-    <t>raj</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+  <si>
+    <t>Roll Number</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>R001</t>
+  </si>
+  <si>
+    <t>R002</t>
+  </si>
+  <si>
+    <t>Mark Reference</t>
+  </si>
+  <si>
+    <t>Mark Ref</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1|2|3|5</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Ajay</t>
   </si>
 </sst>
 </file>
@@ -108,8 +157,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,68 +440,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611E5B30-C0EB-48BF-A0BC-1C36C2B1349A}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
